--- a/ДЗ5.xlsx
+++ b/ДЗ5.xlsx
@@ -48,88 +48,88 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>2.9402667837357144</t>
-  </si>
-  <si>
-    <t>1.709180015978412</t>
-  </si>
-  <si>
-    <t>11.096778347403049</t>
-  </si>
-  <si>
-    <t>5.241281302347995</t>
-  </si>
-  <si>
-    <t>3.900567050629623</t>
-  </si>
-  <si>
-    <t>13.792058718490772</t>
-  </si>
-  <si>
-    <t>16.8519139662385</t>
-  </si>
-  <si>
-    <t>43.2620957210671</t>
+    <t>-0.009232272524386662</t>
+  </si>
+  <si>
+    <t>0.2860849387192219</t>
+  </si>
+  <si>
+    <t>0.9887043246554055</t>
+  </si>
+  <si>
+    <t>0.5797904801500203</t>
+  </si>
+  <si>
+    <t>0.5224052994312935</t>
+  </si>
+  <si>
+    <t>3.3520971166720592</t>
+  </si>
+  <si>
+    <t>1.9699005587026477</t>
+  </si>
+  <si>
+    <t>25.003825447127134</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>1.7825869854193162</t>
-  </si>
-  <si>
-    <t>2.2821276952485086</t>
-  </si>
-  <si>
-    <t>1.2428885471717557</t>
-  </si>
-  <si>
-    <t>[2.8375395578812617; 3.042994009590167]</t>
-  </si>
-  <si>
-    <t>[0.473722438123697; 0.48246405831851585]</t>
-  </si>
-  <si>
-    <t>[29.81055609168316; 29.93339392882153]</t>
-  </si>
-  <si>
-    <t>27.471029690342696</t>
-  </si>
-  <si>
-    <t>15.214423316457475</t>
-  </si>
-  <si>
-    <t>190.22088369429733</t>
-  </si>
-  <si>
-    <t>11.891505933832377</t>
-  </si>
-  <si>
-    <t>38.30168768866098</t>
-  </si>
-  <si>
-    <t>-4.9604080324061215</t>
+    <t>-62.80040787558296</t>
+  </si>
+  <si>
+    <t>1.8260496402573931</t>
+  </si>
+  <si>
+    <t>3.390393905519095</t>
+  </si>
+  <si>
+    <t>[-0.02059595712111891; 0.002131412072345587]</t>
+  </si>
+  <si>
+    <t>[0.5776716295621581; 0.5851326703635019]</t>
+  </si>
+  <si>
+    <t>[2.2858850161441513; 2.5020011769113903]</t>
+  </si>
+  <si>
+    <t>0.33615700087259115</t>
+  </si>
+  <si>
+    <t>0.2729072968738994</t>
+  </si>
+  <si>
+    <t>11.236555079601134</t>
+  </si>
+  <si>
+    <t>0.9718452701345086</t>
+  </si>
+  <si>
+    <t>15.627952314447748</t>
+  </si>
+  <si>
+    <t>-0.9980552885681391</t>
+  </si>
+  <si>
+    <t>-9.375873132679386</t>
   </si>
   <si>
     <t>Коэффициент ковариации</t>
   </si>
   <si>
-    <t>27.471029690342707</t>
-  </si>
-  <si>
-    <t>0.1037730414268887</t>
-  </si>
-  <si>
-    <t>-1.667394929204851</t>
-  </si>
-  <si>
-    <t>0.049731057390754306</t>
-  </si>
-  <si>
-    <t>-0.07348258182074197</t>
-  </si>
-  <si>
-    <t>9.8199244981799</t>
+    <t>-0.012146356693596634</t>
+  </si>
+  <si>
+    <t>-0.05693807882210727</t>
+  </si>
+  <si>
+    <t>0.03622785798160634</t>
+  </si>
+  <si>
+    <t>-0.010692329512347805</t>
+  </si>
+  <si>
+    <t>30.396131472998285</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -335,10 +335,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s" s="0">
         <v>34</v>
